--- a/artfynd/A 74005-2021.xlsx
+++ b/artfynd/A 74005-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101362742</v>
+        <v>103672936</v>
       </c>
       <c r="B2" t="n">
-        <v>89406</v>
+        <v>96354</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1204</v>
+        <v>221952</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Nöjdfjället, Jmt</t>
+          <t>Nöjden, 2,6 km V från befintligt hus, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>444383.9599903998</v>
+        <v>444643.6316846627</v>
       </c>
       <c r="R2" t="n">
-        <v>7094782.483513337</v>
+        <v>7094865.722657905</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -753,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,29 +774,33 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Vid bäck i granskog</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ola Löfgren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ola Löfgren</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101362755</v>
+        <v>101362742</v>
       </c>
       <c r="B3" t="n">
-        <v>81236</v>
+        <v>89406</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -912,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101362747</v>
+        <v>101362755</v>
       </c>
       <c r="B4" t="n">
-        <v>96354</v>
+        <v>81236</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,31 +925,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101362767</v>
+        <v>101362747</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,30 +1041,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1072,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>444364.4024028718</v>
+        <v>444383.9599903998</v>
       </c>
       <c r="R5" t="n">
-        <v>7094746.371122397</v>
+        <v>7094782.483513337</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1145,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101362741</v>
+        <v>101362767</v>
       </c>
       <c r="B6" t="n">
-        <v>85703</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1161,21 +1162,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>444383.9599903998</v>
+        <v>444364.4024028718</v>
       </c>
       <c r="R6" t="n">
-        <v>7094782.483513337</v>
+        <v>7094746.371122397</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1261,10 +1262,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103672936</v>
+        <v>101362741</v>
       </c>
       <c r="B7" t="n">
-        <v>96354</v>
+        <v>85703</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1273,38 +1274,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221952</v>
+        <v>510</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Nöjden, 2,6 km V från befintligt hus, Jmt</t>
+          <t>Nöjdfjället, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>444643.6316846627</v>
+        <v>444383.9599903998</v>
       </c>
       <c r="R7" t="n">
-        <v>7094865.722657905</v>
+        <v>7094782.483513337</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1335,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1341,7 +1345,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1355,23 +1359,19 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Vid bäck i granskog</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Ola Löfgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Ola Löfgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>

--- a/artfynd/A 74005-2021.xlsx
+++ b/artfynd/A 74005-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103672936</v>
+        <v>101362742</v>
       </c>
       <c r="B2" t="n">
-        <v>96354</v>
+        <v>89406</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221952</v>
+        <v>1204</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Nöjden, 2,6 km V från befintligt hus, Jmt</t>
+          <t>Nöjdfjället, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>444643.6316846627</v>
+        <v>444383.9599903998</v>
       </c>
       <c r="R2" t="n">
-        <v>7094865.722657905</v>
+        <v>7094782.483513337</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -750,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +763,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -774,33 +777,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Vid bäck i granskog</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ola Löfgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ola Löfgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101362742</v>
+        <v>101362755</v>
       </c>
       <c r="B3" t="n">
-        <v>89406</v>
+        <v>81236</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -913,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101362755</v>
+        <v>101362747</v>
       </c>
       <c r="B4" t="n">
-        <v>81236</v>
+        <v>96354</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,30 +924,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>221952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101362747</v>
+        <v>101362767</v>
       </c>
       <c r="B5" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,31 +1041,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1073,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>444383.9599903998</v>
+        <v>444364.4024028718</v>
       </c>
       <c r="R5" t="n">
-        <v>7094782.483513337</v>
+        <v>7094746.371122397</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1146,10 +1145,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101362767</v>
+        <v>101362741</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>85703</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,21 +1161,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1189,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>444364.4024028718</v>
+        <v>444383.9599903998</v>
       </c>
       <c r="R6" t="n">
-        <v>7094746.371122397</v>
+        <v>7094782.483513337</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,10 +1261,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101362741</v>
+        <v>103672936</v>
       </c>
       <c r="B7" t="n">
-        <v>85703</v>
+        <v>96354</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,41 +1273,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>510</v>
+        <v>221952</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Nöjdfjället, Jmt</t>
+          <t>Nöjden, 2,6 km V från befintligt hus, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>444383.9599903998</v>
+        <v>444643.6316846627</v>
       </c>
       <c r="R7" t="n">
-        <v>7094782.483513337</v>
+        <v>7094865.722657905</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1335,7 +1331,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1345,7 +1341,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1359,19 +1355,23 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Vid bäck i granskog</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ola Löfgren</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ola Löfgren</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
